--- a/Documentation/whisker_system/whisker_module_1_BOM.xlsx
+++ b/Documentation/whisker_system/whisker_module_1_BOM.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -296,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K19" totalsRowShown="0">
-  <autoFilter ref="A1:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K8" totalsRowShown="0">
+  <autoFilter ref="A1:K8"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
     <tableColumn id="15" name="Description"/>
@@ -604,11 +603,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,11 +618,11 @@
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="75.42578125" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="15" width="12" hidden="1" customWidth="1"/>
@@ -807,14 +809,14 @@
         <v>38</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -841,14 +843,14 @@
         <v>41</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -875,14 +877,14 @@
         <v>44</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J7" s="3">
         <v>41</v>
       </c>
       <c r="K7" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>6.5600000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -909,231 +911,60 @@
         <v>50</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J8" s="3">
         <v>40</v>
       </c>
       <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <f>SUM(Table3[Quantity])</f>
+        <v>135</v>
+      </c>
+      <c r="K10" s="8">
+        <f>SUM(Table3[Total])</f>
+        <v>25.29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8">
-        <f>SUM(Table3[Total])</f>
-        <v>15.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1273,17 +1104,6 @@
     <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
@@ -1311,11 +1131,13 @@
     <hyperlink ref="D4" r:id="rId23" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
     <hyperlink ref="E4" r:id="rId24" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
     <hyperlink ref="G4" r:id="rId25" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="H5" r:id="rId26"/>
+    <hyperlink ref="H7" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/whisker_system/whisker_module_1_BOM.xlsx
+++ b/Documentation/whisker_system/whisker_module_1_BOM.xlsx
@@ -123,18 +123,9 @@
     <t>Header</t>
   </si>
   <si>
-    <t>3 pin polar</t>
-  </si>
-  <si>
     <t>Molex Inc</t>
   </si>
   <si>
-    <t>WM4201-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
-  </si>
-  <si>
     <t>5 pin polar</t>
   </si>
   <si>
@@ -178,6 +169,15 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312</t>
+  </si>
+  <si>
+    <t>4 pin polar</t>
+  </si>
+  <si>
+    <t>WM4202-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22232041</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,16 +763,16 @@
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>0.63</v>
@@ -790,33 +790,33 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5">
-        <v>22232031</v>
+        <v>22232041</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -824,11 +824,11 @@
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5">
         <v>22232051</v>
@@ -837,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="1">
         <v>0.45</v>
@@ -858,11 +858,11 @@
         <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5">
         <v>22232021</v>
@@ -871,10 +871,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I7" s="4">
         <v>0.16</v>
@@ -889,26 +889,26 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I8" s="6">
         <v>0.05</v>
@@ -940,7 +940,7 @@
       </c>
       <c r="K10" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>25.29</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1114,30 +1114,29 @@
     <hyperlink ref="G3" r:id="rId6" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
     <hyperlink ref="D3" r:id="rId7" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
     <hyperlink ref="D5" r:id="rId8" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E5" r:id="rId9" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="G5" r:id="rId10" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="D6" r:id="rId11" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E6" r:id="rId12" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G6" r:id="rId13" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H6" r:id="rId14"/>
-    <hyperlink ref="E7" r:id="rId15" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D7" r:id="rId16" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G7" r:id="rId17" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="H8" r:id="rId18"/>
-    <hyperlink ref="G8" r:id="rId19" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E8" r:id="rId20" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D8" r:id="rId21" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="H3" r:id="rId22"/>
-    <hyperlink ref="D4" r:id="rId23" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="E4" r:id="rId24" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
-    <hyperlink ref="G4" r:id="rId25" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
-    <hyperlink ref="H5" r:id="rId26"/>
-    <hyperlink ref="H7" r:id="rId27"/>
+    <hyperlink ref="D6" r:id="rId9" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E6" r:id="rId10" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G6" r:id="rId11" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H6" r:id="rId12"/>
+    <hyperlink ref="E7" r:id="rId13" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D7" r:id="rId14" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G7" r:id="rId15" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="H8" r:id="rId16"/>
+    <hyperlink ref="G8" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E8" r:id="rId18" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D8" r:id="rId19" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="H3" r:id="rId20"/>
+    <hyperlink ref="D4" r:id="rId21" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="E4" r:id="rId22" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="G4" r:id="rId23" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="H7" r:id="rId24"/>
+    <hyperlink ref="G5" r:id="rId25"/>
+    <hyperlink ref="E5" r:id="rId26" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22232041"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" orientation="landscape" r:id="rId28"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
